--- a/ig/main/ValueSet-emdn-vs-all.xlsx
+++ b/ig/main/ValueSet-emdn-vs-all.xlsx
@@ -30,7 +30,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1V.2V.250.1.213.3.3.66</t>
+    <t>id: &lt;a href="http://terminology.hl7.org/5.3.0/NamingSystem-uri.html"&gt;Uniform Resource Identifier (URI)&lt;/a&gt;#urn:oid:1V.2V.250.1.213.3.3.66</t>
   </si>
   <si>
     <t>Version</t>

--- a/ig/main/ValueSet-emdn-vs-all.xlsx
+++ b/ig/main/ValueSet-emdn-vs-all.xlsx
@@ -30,7 +30,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: &lt;a href="http://terminology.hl7.org/5.3.0/NamingSystem-uri.html"&gt;Uniform Resource Identifier (URI)&lt;/a&gt;#urn:oid:1V.2V.250.1.213.3.3.66</t>
+    <t>id: Uniform Resource Identifier (URI)#urn:oid:1V.2V.250.1.213.3.3.66</t>
   </si>
   <si>
     <t>Version</t>
